--- a/6. CONTROLADOR PD Y PID/INFORME PREVIO/componentes_PD_PID.xlsx
+++ b/6. CONTROLADOR PD Y PID/INFORME PREVIO/componentes_PD_PID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSAAC\SEMESTRE VIII\lab-control-i\6. CONTROLADOR PD Y PID\INFORME PREVIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\lab-control-i\6. CONTROLADOR PD Y PID\INFORME PREVIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3775A99C-F2FE-4B12-B21C-047C3C45ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC82E2-FDE8-48A6-BF00-BA0332689969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="2475" windowWidth="18315" windowHeight="10950" xr2:uid="{B57FF5AF-B79F-42F9-94A3-05B12E01A33B}"/>
+    <workbookView xWindow="7188" yWindow="804" windowWidth="11508" windowHeight="11580" xr2:uid="{B57FF5AF-B79F-42F9-94A3-05B12E01A33B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -140,24 +140,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,12 +471,12 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -500,7 +496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,15 +509,15 @@
       <c r="H2">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>220</v>
       </c>
-      <c r="N2" s="5">
-        <f>$H$1*M2</f>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:N21" si="0">$H$1*M2</f>
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -534,55 +530,55 @@
       <c r="H3">
         <v>7.7717999999999998</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>120</v>
       </c>
-      <c r="N3" s="5">
-        <f>$H$1*M3</f>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4">
         <v>74.591700000000003</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>180</v>
       </c>
-      <c r="N4" s="5">
-        <f>$H$1*M4</f>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M5" s="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5" s="3">
         <v>220</v>
       </c>
-      <c r="N5" s="5">
-        <f>$H$1*M5</f>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="M6" s="5">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="M6" s="3">
         <v>270</v>
       </c>
-      <c r="N6" s="5">
-        <f>$H$1*M6</f>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -613,15 +609,15 @@
       <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>330</v>
       </c>
-      <c r="N7" s="5">
-        <f>$H$1*M7</f>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>1/($B$3*C8)</f>
         <v>9009.0090090090089</v>
@@ -642,15 +638,15 @@
         <v>2240</v>
       </c>
       <c r="G8">
-        <f>1/($H$4*J8)</f>
+        <f t="shared" ref="G8:G15" si="1">1/($H$4*J8)</f>
         <v>13406.317324849815</v>
       </c>
       <c r="H8">
-        <f>$H$2/I8</f>
+        <f t="shared" ref="H8:H15" si="2">$H$2/I8</f>
         <v>31300.000000000004</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I15" si="0">1*10^-6</f>
+        <f t="shared" ref="I8:I15" si="3">1*10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="J8">
@@ -661,21 +657,21 @@
         <f>(H8/G8)+(I8/J8)</f>
         <v>3.3347202100000004</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>390</v>
       </c>
-      <c r="N8" s="5">
-        <f>$H$1*M8</f>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" ref="A9:A15" si="1">1/($B$3*C9)</f>
+        <f t="shared" ref="A9:A15" si="4">1/($B$3*C9)</f>
         <v>1916.8104274487255</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B15" si="2">$B$1/C9</f>
+        <f t="shared" ref="B9:B15" si="5">$B$1/C9</f>
         <v>9493.8297872340427</v>
       </c>
       <c r="C9">
@@ -686,19 +682,19 @@
         <v>120</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E19" si="3">$B$2*D9</f>
+        <f t="shared" ref="E9:E15" si="6">$B$2*D9</f>
         <v>480</v>
       </c>
       <c r="G9">
-        <f>1/($H$4*J9)</f>
+        <f t="shared" si="1"/>
         <v>2852.4079414574076</v>
       </c>
       <c r="H9">
-        <f>$H$2/I9</f>
+        <f t="shared" si="2"/>
         <v>31300.000000000004</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="J9">
@@ -706,24 +702,24 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K14" si="4">(H9/G9)+(I9/J9)</f>
+        <f t="shared" ref="K9:K14" si="7">(H9/G9)+(I9/J9)</f>
         <v>11.185950944446811</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>470</v>
       </c>
-      <c r="N9" s="5">
-        <f>$H$1*M9</f>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>900.90090090090098</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4462.1000000000004</v>
       </c>
       <c r="C10">
@@ -734,42 +730,42 @@
         <v>220</v>
       </c>
       <c r="E10">
+        <f t="shared" si="6"/>
+        <v>880</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>1340.6317324849817</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>31300.000000000004</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>880</v>
-      </c>
-      <c r="G10" s="6">
-        <f>1/($H$4*J10)</f>
-        <v>1340.6317324849817</v>
-      </c>
-      <c r="H10" s="6">
-        <f>$H$2/I10</f>
-        <v>31300.000000000004</v>
-      </c>
-      <c r="I10" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J40" si="8">10*10^-6</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="7"/>
+        <v>23.447202100000002</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" ref="J10:J40" si="5">10*10^-6</f>
-        <v>9.9999999999999991E-6</v>
-      </c>
-      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f t="shared" si="4"/>
-        <v>23.447202100000002</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
-        <f>$H$1*M10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="1"/>
         <v>409.50040950040955</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2028.2272727272727</v>
       </c>
       <c r="C11">
@@ -780,91 +776,91 @@
         <v>270</v>
       </c>
       <c r="E11">
+        <f t="shared" si="6"/>
+        <v>1080</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>609.37806022044617</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>31300.000000000004</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>1080</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/($H$4*J11)</f>
-        <v>609.37806022044617</v>
-      </c>
-      <c r="H11" s="1">
-        <f>$H$2/I11</f>
-        <v>31300.000000000004</v>
-      </c>
-      <c r="I11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J41" si="9">22*10^-6</f>
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="7"/>
+        <v>51.409299165454556</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" ref="J11:J41" si="6">22*10^-6</f>
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <f t="shared" si="4"/>
-        <v>51.409299165454556</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <f>$H$1*M11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f t="shared" si="1"/>
         <v>191.68104274487254</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" si="2"/>
+      <c r="B12" s="5">
+        <f t="shared" si="5"/>
         <v>949.38297872340434</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <f>47*10^-6</f>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>120</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>285.24079414574078</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>31300.000000000004</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="G12">
-        <f>1/($H$4*J12)</f>
-        <v>285.24079414574078</v>
-      </c>
-      <c r="H12">
-        <f>$H$2/I12</f>
-        <v>31300.000000000004</v>
-      </c>
-      <c r="I12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J42" si="10">47*10^-6</f>
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>109.75312646574469</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" ref="J12:J42" si="7">47*10^-6</f>
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
         <f t="shared" si="4"/>
-        <v>109.75312646574469</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <f>$H$1*M12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
         <v>90.090090090090101</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>446.21000000000004</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <f>100*10^-6</f>
         <v>9.9999999999999991E-5</v>
       </c>
@@ -872,42 +868,42 @@
         <v>150</v>
       </c>
       <c r="E13">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>134.06317324849817</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>31300.000000000004</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="G13">
-        <f>1/($H$4*J13)</f>
-        <v>134.06317324849817</v>
-      </c>
-      <c r="H13">
-        <f>$H$2/I13</f>
-        <v>31300.000000000004</v>
-      </c>
-      <c r="I13">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J43" si="11">100*10^-6</f>
+        <v>9.9999999999999991E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>233.482021</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ref="J13:J43" si="8">100*10^-6</f>
-        <v>9.9999999999999991E-5</v>
-      </c>
-      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
         <f t="shared" si="4"/>
-        <v>233.482021</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <f>$H$1*M13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="1"/>
         <v>19.168104274487252</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94.938297872340428</v>
       </c>
       <c r="C14">
@@ -918,42 +914,42 @@
         <v>390</v>
       </c>
       <c r="E14">
+        <f t="shared" si="6"/>
+        <v>1560</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>28.524079414574075</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>31300.000000000004</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>1560</v>
-      </c>
-      <c r="G14">
-        <f>1/($H$4*J14)</f>
-        <v>28.524079414574075</v>
-      </c>
-      <c r="H14">
-        <f>$H$2/I14</f>
-        <v>31300.000000000004</v>
-      </c>
-      <c r="I14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J44" si="12">470*10^-6</f>
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>1097.3206263595746</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J44" si="9">470*10^-6</f>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
         <f t="shared" si="4"/>
-        <v>1097.3206263595746</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <f>$H$1*M14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="1"/>
         <v>9.0090090090090094</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44.621000000000002</v>
       </c>
       <c r="C15">
@@ -964,43 +960,43 @@
         <v>470</v>
       </c>
       <c r="E15">
+        <f t="shared" si="6"/>
+        <v>1880</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>13.406317324849814</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>31300.000000000004</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>1880</v>
-      </c>
-      <c r="G15">
-        <f>1/($H$4*J15)</f>
-        <v>13.406317324849814</v>
-      </c>
-      <c r="H15">
-        <f>$H$2/I15</f>
-        <v>31300.000000000004</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J45" si="10">1000*10^-6</f>
+        <f t="shared" ref="J15:J45" si="13">1000*10^-6</f>
         <v>1E-3</v>
       </c>
       <c r="K15">
         <f>(H15/G15)+(I15/J15)</f>
         <v>2334.7212100000006</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
-        <f>$H$1*M15</f>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M16" s="5"/>
-      <c r="N16" s="5">
-        <f>$H$1*M16</f>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1016,23 +1012,23 @@
       <c r="K17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5">
-        <f>$H$1*M17</f>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G18">
-        <f>1/($H$4*J18)</f>
+        <f t="shared" ref="G18:G25" si="14">1/($H$4*J18)</f>
         <v>13406.317324849815</v>
       </c>
       <c r="H18">
-        <f>$H$2/I18</f>
+        <f t="shared" ref="H18:H25" si="15">$H$2/I18</f>
         <v>6659.5744680851067</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I25" si="11">4.7*10^-6</f>
+        <f t="shared" ref="I18:I25" si="16">4.7*10^-6</f>
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="J18">
@@ -1043,23 +1039,23 @@
         <f>(H18/G18)+(I18/J18)</f>
         <v>5.1967489808510638</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5">
-        <f>$H$1*M18</f>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G19">
-        <f>1/($H$4*J19)</f>
+        <f t="shared" si="14"/>
         <v>2852.4079414574076</v>
       </c>
       <c r="H19">
-        <f>$H$2/I19</f>
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
       <c r="I19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="J19">
@@ -1067,150 +1063,150 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K24" si="12">(H19/G19)+(I19/J19)</f>
+        <f t="shared" ref="K19:K24" si="17">(H19/G19)+(I19/J19)</f>
         <v>3.33472021</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5">
-        <f>$H$1*M19</f>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G20">
-        <f>1/($H$4*J20)</f>
+        <f t="shared" si="14"/>
         <v>1340.6317324849817</v>
       </c>
       <c r="H20">
-        <f>$H$2/I20</f>
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
       <c r="I20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20" si="13">10*10^-6</f>
+        <f t="shared" ref="J20" si="18">10*10^-6</f>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="K20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5.4374898085106373</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5">
-        <f>$H$1*M20</f>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="7">
-        <f>1/($H$4*J21)</f>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="14"/>
         <v>609.37806022044617</v>
       </c>
-      <c r="H21" s="7">
-        <f>$H$2/I21</f>
+      <c r="H21">
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
-      <c r="I21" s="7">
-        <f t="shared" si="11"/>
+      <c r="I21">
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="J21" s="7">
-        <f t="shared" ref="J21" si="14">22*10^-6</f>
+      <c r="J21">
+        <f t="shared" ref="J21" si="19">22*10^-6</f>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="12"/>
+      <c r="K21">
+        <f t="shared" si="17"/>
         <v>11.142113942359767</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5">
-        <f>$H$1*M21</f>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G22" s="7">
-        <f>1/($H$4*J22)</f>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="14"/>
         <v>285.24079414574078</v>
       </c>
-      <c r="H22" s="7">
-        <f>$H$2/I22</f>
+      <c r="H22">
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
-      <c r="I22" s="7">
-        <f t="shared" si="11"/>
+      <c r="I22">
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="J22" s="10">
-        <f t="shared" ref="J22" si="15">47*10^-6</f>
+      <c r="J22">
+        <f t="shared" ref="J22" si="20">47*10^-6</f>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="12"/>
+      <c r="K22">
+        <f t="shared" si="17"/>
         <v>23.447202100000002</v>
       </c>
     </row>
-    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G23" s="1">
-        <f>1/($H$4*J23)</f>
+        <f t="shared" si="14"/>
         <v>134.06317324849817</v>
       </c>
       <c r="H23" s="1">
-        <f>$H$2/I23</f>
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" ref="J23" si="16">100*10^-6</f>
+        <f t="shared" ref="J23" si="21">100*10^-6</f>
         <v>9.9999999999999991E-5</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>49.721898085106375</v>
       </c>
     </row>
-    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G24">
-        <f>1/($H$4*J24)</f>
+        <f t="shared" si="14"/>
         <v>28.524079414574075</v>
       </c>
       <c r="H24">
-        <f>$H$2/I24</f>
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
       <c r="I24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24" si="17">470*10^-6</f>
+        <f t="shared" ref="J24" si="22">470*10^-6</f>
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="K24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>233.482021</v>
       </c>
     </row>
-    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G25">
-        <f>1/($H$4*J25)</f>
+        <f t="shared" si="14"/>
         <v>13.406317324849814</v>
       </c>
       <c r="H25">
-        <f>$H$2/I25</f>
+        <f t="shared" si="15"/>
         <v>6659.5744680851067</v>
       </c>
       <c r="I25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="18">1000*10^-6</f>
+        <f t="shared" ref="J25" si="23">1000*10^-6</f>
         <v>1E-3</v>
       </c>
       <c r="K25">
@@ -1218,7 +1214,7 @@
         <v>496.7536808510639</v>
       </c>
     </row>
-    <row r="27" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1240,17 +1236,17 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G28">
-        <f>1/($H$4*J28)</f>
+        <f t="shared" ref="G28:G35" si="24">1/($H$4*J28)</f>
         <v>13406.317324849815</v>
       </c>
       <c r="H28">
-        <f>$H$2/I28</f>
+        <f t="shared" ref="H28:H35" si="25">$H$2/I28</f>
         <v>3130.0000000000005</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:J35" si="19">10*10^-6</f>
+        <f t="shared" ref="I28:J35" si="26">10*10^-6</f>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="J28">
@@ -1262,155 +1258,153 @@
         <v>10.233472021000001</v>
       </c>
     </row>
-    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="4">
-        <f>1/($H$4*J29)</f>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="24"/>
         <v>2852.4079414574076</v>
       </c>
-      <c r="H29" s="4">
-        <f>$H$2/I29</f>
+      <c r="H29">
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="19"/>
+      <c r="I29">
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <f>4.7*10^-6</f>
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="K29" s="4">
-        <f t="shared" ref="K29:K34" si="20">(H29/G29)+(I29/J29)</f>
+      <c r="K29">
+        <f t="shared" ref="K29:K34" si="27">(H29/G29)+(I29/J29)</f>
         <v>3.224978073168085</v>
       </c>
     </row>
-    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G30">
-        <f>1/($H$4*J30)</f>
+        <f t="shared" si="24"/>
         <v>1340.6317324849817</v>
       </c>
       <c r="H30">
-        <f>$H$2/I30</f>
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
       <c r="I30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="K30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.33472021</v>
       </c>
     </row>
-    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G31" s="7">
-        <f>1/($H$4*J31)</f>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="24"/>
         <v>609.37806022044617</v>
       </c>
-      <c r="H31" s="7">
-        <f>$H$2/I31</f>
+      <c r="H31">
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
-      <c r="I31" s="7">
-        <f t="shared" si="19"/>
+      <c r="I31">
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="J31" s="7">
-        <f t="shared" ref="J31" si="21">22*10^-6</f>
+      <c r="J31">
+        <f t="shared" ref="J31" si="28">22*10^-6</f>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="K31" s="7">
-        <f t="shared" si="20"/>
+      <c r="K31">
+        <f t="shared" si="27"/>
         <v>5.5909299165454547</v>
       </c>
     </row>
-    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G32" s="9">
-        <f>1/($H$4*J32)</f>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <f t="shared" si="24"/>
         <v>285.24079414574078</v>
       </c>
-      <c r="H32" s="9">
-        <f>$H$2/I32</f>
+      <c r="H32" s="1">
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
-      <c r="I32" s="9">
-        <f t="shared" si="19"/>
+      <c r="I32" s="1">
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="J32" s="9">
-        <f t="shared" ref="J32" si="22">47*10^-6</f>
+      <c r="J32" s="1">
+        <f t="shared" ref="J32" si="29">47*10^-6</f>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="K32" s="9">
-        <f t="shared" si="20"/>
+      <c r="K32" s="1">
+        <f t="shared" si="27"/>
         <v>11.185950944446811</v>
       </c>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G33" s="7">
-        <f>1/($H$4*J33)</f>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="24"/>
         <v>134.06317324849817</v>
       </c>
-      <c r="H33" s="7">
-        <f>$H$2/I33</f>
+      <c r="H33">
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
-      <c r="I33" s="7">
-        <f t="shared" si="19"/>
+      <c r="I33">
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="J33" s="10">
-        <f t="shared" ref="J33" si="23">100*10^-6</f>
+      <c r="J33">
+        <f t="shared" ref="J33" si="30">100*10^-6</f>
         <v>9.9999999999999991E-5</v>
       </c>
-      <c r="K33" s="7">
-        <f t="shared" si="20"/>
+      <c r="K33">
+        <f t="shared" si="27"/>
         <v>23.447202100000002</v>
       </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G34">
-        <f>1/($H$4*J34)</f>
+        <f t="shared" si="24"/>
         <v>28.524079414574075</v>
       </c>
       <c r="H34">
-        <f>$H$2/I34</f>
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
       <c r="I34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34" si="24">470*10^-6</f>
+        <f t="shared" ref="J34" si="31">470*10^-6</f>
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="K34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>109.7531264657447</v>
       </c>
     </row>
-    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G35">
-        <f>1/($H$4*J35)</f>
+        <f t="shared" si="24"/>
         <v>13.406317324849814</v>
       </c>
       <c r="H35">
-        <f>$H$2/I35</f>
+        <f t="shared" si="25"/>
         <v>3130.0000000000005</v>
       </c>
       <c r="I35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35" si="25">1000*10^-6</f>
+        <f t="shared" ref="J35" si="32">1000*10^-6</f>
         <v>1E-3</v>
       </c>
       <c r="K35">
@@ -1418,7 +1412,7 @@
         <v>233.48202100000006</v>
       </c>
     </row>
-    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G37" s="2" t="s">
         <v>10</v>
       </c>
@@ -1440,17 +1434,17 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G38">
-        <f>1/($H$4*J38)</f>
+        <f t="shared" ref="G38:G45" si="33">1/($H$4*J38)</f>
         <v>13406.317324849815</v>
       </c>
       <c r="H38">
-        <f>$H$2/I38</f>
+        <f t="shared" ref="H38:H45" si="34">$H$2/I38</f>
         <v>665.95744680851067</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" ref="I38:I45" si="26">47*10^-6</f>
+      <c r="I38">
+        <f t="shared" ref="I38:I45" si="35">47*10^-6</f>
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J38">
@@ -1462,155 +1456,153 @@
         <v>47.049674898085108</v>
       </c>
     </row>
-    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G39" s="7">
-        <f>1/($H$4*J39)</f>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="33"/>
         <v>2852.4079414574076</v>
       </c>
-      <c r="H39" s="7">
-        <f>$H$2/I39</f>
+      <c r="H39">
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" si="26"/>
+      <c r="I39">
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39">
         <f>4.7*10^-6</f>
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="K39" s="7">
-        <f t="shared" ref="K39:K44" si="27">(H39/G39)+(I39/J39)</f>
+      <c r="K39">
+        <f t="shared" ref="K39:K44" si="36">(H39/G39)+(I39/J39)</f>
         <v>10.233472021000001</v>
       </c>
     </row>
-    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G40" s="7">
-        <f>1/($H$4*J40)</f>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="33"/>
         <v>1340.6317324849817</v>
       </c>
-      <c r="H40" s="7">
-        <f>$H$2/I40</f>
+      <c r="H40">
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="26"/>
+      <c r="I40">
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="J40" s="7">
-        <f t="shared" si="5"/>
+      <c r="J40">
+        <f t="shared" si="8"/>
         <v>9.9999999999999991E-6</v>
       </c>
-      <c r="K40" s="7">
-        <f t="shared" si="27"/>
+      <c r="K40">
+        <f t="shared" si="36"/>
         <v>5.1967489808510638</v>
       </c>
     </row>
-    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G41" s="1">
-        <f>1/($H$4*J41)</f>
+        <f t="shared" si="33"/>
         <v>609.37806022044617</v>
       </c>
       <c r="H41" s="1">
-        <f>$H$2/I41</f>
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>3.2292113942359766</v>
       </c>
     </row>
-    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G42">
-        <f>1/($H$4*J42)</f>
+        <f t="shared" si="33"/>
         <v>285.24079414574078</v>
       </c>
       <c r="H42">
-        <f>$H$2/I42</f>
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
-      <c r="I42" s="4">
-        <f t="shared" si="26"/>
+      <c r="I42">
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="J42" s="4">
-        <f t="shared" si="7"/>
+      <c r="J42">
+        <f t="shared" si="10"/>
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="K42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>3.33472021</v>
       </c>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="7:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G43">
-        <f>1/($H$4*J43)</f>
+        <f t="shared" si="33"/>
         <v>134.06317324849817</v>
       </c>
       <c r="H43">
-        <f>$H$2/I43</f>
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
-      <c r="I43" s="4">
-        <f t="shared" si="26"/>
+      <c r="I43">
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="J43" s="4">
-        <f t="shared" si="8"/>
+      <c r="J43">
+        <f t="shared" si="11"/>
         <v>9.9999999999999991E-5</v>
       </c>
       <c r="K43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>5.4374898085106373</v>
       </c>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="7:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G44">
-        <f>1/($H$4*J44)</f>
+        <f t="shared" si="33"/>
         <v>28.524079414574075</v>
       </c>
       <c r="H44">
-        <f>$H$2/I44</f>
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
-      <c r="I44" s="4">
-        <f t="shared" si="26"/>
+      <c r="I44">
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="K44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>23.447202100000002</v>
       </c>
     </row>
-    <row r="45" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G45">
-        <f>1/($H$4*J45)</f>
+        <f t="shared" si="33"/>
         <v>13.406317324849814</v>
       </c>
       <c r="H45">
-        <f>$H$2/I45</f>
+        <f t="shared" si="34"/>
         <v>665.95744680851067</v>
       </c>
-      <c r="I45" s="4">
-        <f t="shared" si="26"/>
+      <c r="I45">
+        <f t="shared" si="35"/>
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1E-3</v>
       </c>
       <c r="K45">
@@ -1618,7 +1610,7 @@
         <v>49.721898085106389</v>
       </c>
     </row>
-    <row r="47" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1635,17 +1627,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G48">
-        <f>1/($H$4*J48)</f>
+        <f t="shared" ref="G48:G55" si="37">1/($H$4*J48)</f>
         <v>13406.317324849815</v>
       </c>
       <c r="H48">
-        <f>$H$2/I48</f>
+        <f t="shared" ref="H48:H55" si="38">$H$2/I48</f>
         <v>1422.7272727272727</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48:I55" si="28">22*10^-6</f>
+        <f t="shared" ref="I48:I55" si="39">22*10^-6</f>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="J48">
@@ -1657,154 +1649,153 @@
         <v>22.10612364590909</v>
       </c>
     </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="4">
-        <f>1/($H$4*J49)</f>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <f t="shared" si="37"/>
         <v>2852.4079414574076</v>
       </c>
-      <c r="H49" s="4">
-        <f>$H$2/I49</f>
+      <c r="H49">
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
-      <c r="I49" s="4">
-        <f t="shared" si="28"/>
+      <c r="I49">
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49">
         <f>4.7*10^-6</f>
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="K49" s="4">
-        <f t="shared" ref="K49:K54" si="29">(H49/G49)+(I49/J49)</f>
+      <c r="K49">
+        <f t="shared" ref="K49:K54" si="40">(H49/G49)+(I49/J49)</f>
         <v>5.1796321996025148</v>
       </c>
     </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G50">
-        <f>1/($H$4*J50)</f>
+        <f t="shared" si="37"/>
         <v>1340.6317324849817</v>
       </c>
       <c r="H50">
-        <f>$H$2/I50</f>
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
       <c r="I50">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50" si="30">10*10^-6</f>
+        <f t="shared" ref="J50" si="41">10*10^-6</f>
         <v>9.9999999999999991E-6</v>
       </c>
       <c r="K50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.2612364590909091</v>
       </c>
     </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G51">
-        <f>1/($H$4*J51)</f>
+        <f t="shared" si="37"/>
         <v>609.37806022044617</v>
       </c>
       <c r="H51">
-        <f>$H$2/I51</f>
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
       <c r="I51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="J51">
-        <f t="shared" ref="J51" si="31">22*10^-6</f>
+        <f t="shared" ref="J51" si="42">22*10^-6</f>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="K51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>3.33472021</v>
       </c>
     </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G52">
-        <f>1/($H$4*J52)</f>
+        <f t="shared" si="37"/>
         <v>285.24079414574078</v>
       </c>
       <c r="H52">
-        <f>$H$2/I52</f>
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
       <c r="I52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="J52" s="4">
-        <f t="shared" ref="J52" si="32">47*10^-6</f>
+      <c r="J52">
+        <f t="shared" ref="J52" si="43">47*10^-6</f>
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="K52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>5.4558964641102516</v>
       </c>
     </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G53" s="9">
-        <f>1/($H$4*J53)</f>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <f t="shared" si="37"/>
         <v>134.06317324849817</v>
       </c>
-      <c r="H53" s="9">
-        <f>$H$2/I53</f>
+      <c r="H53" s="1">
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
-      <c r="I53" s="9">
-        <f t="shared" si="28"/>
+      <c r="I53" s="1">
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="J53" s="9">
-        <f t="shared" ref="J53" si="33">100*10^-6</f>
+      <c r="J53" s="1">
+        <f t="shared" ref="J53" si="44">100*10^-6</f>
         <v>9.9999999999999991E-5</v>
       </c>
-      <c r="K53" s="9">
-        <f t="shared" si="29"/>
+      <c r="K53" s="1">
+        <f t="shared" si="40"/>
         <v>10.832364590909091</v>
       </c>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G54" s="1">
-        <f>1/($H$4*J54)</f>
+        <f t="shared" si="37"/>
         <v>28.524079414574075</v>
       </c>
       <c r="H54" s="1">
-        <f>$H$2/I54</f>
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" ref="J54" si="34">470*10^-6</f>
+        <f t="shared" ref="J54" si="45">470*10^-6</f>
         <v>4.6999999999999999E-4</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>49.924922087911028</v>
       </c>
     </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G55">
-        <f>1/($H$4*J55)</f>
+        <f t="shared" si="37"/>
         <v>13.406317324849814</v>
       </c>
       <c r="H55">
-        <f>$H$2/I55</f>
+        <f t="shared" si="38"/>
         <v>1422.7272727272727</v>
       </c>
       <c r="I55">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55" si="35">1000*10^-6</f>
+        <f t="shared" ref="J55" si="46">1000*10^-6</f>
         <v>1E-3</v>
       </c>
       <c r="K55">
